--- a/data_files/known_kinase_activity.xlsx
+++ b/data_files/known_kinase_activity.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirbyleo/Box Sync/Depot - dDAVP-time course - Kirby/Scripts/time_course_bayes/data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirbyleo/Box/Depot - dDAVP-time course - Kirby/Scripts/FinalDirectory/time_course_bayes/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E52AE8B3-B690-E84B-8D0E-7085DC6E8B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFC2CED-5210-D948-B460-E8E3F1DA9E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="716" xr2:uid="{9B74D85E-2CB5-4AFA-8CEF-2E45700B08E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="list" sheetId="18" r:id="rId1"/>
+    <sheet name="README" sheetId="19" r:id="rId1"/>
+    <sheet name="list" sheetId="18" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>MAP2K1</t>
   </si>
@@ -249,6 +250,9 @@
   </si>
   <si>
     <t>Regulated</t>
+  </si>
+  <si>
+    <t>The following data in ("list") is a cumulation of data from various articles. Please see Additional file 3: Table S3 for references for each assignment.</t>
   </si>
 </sst>
 </file>
@@ -320,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -339,6 +343,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +660,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99B22AE-3E21-864B-A458-E18C77021B78}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116910D7-6496-BD40-8BBF-41C51D4AA1D4}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
